--- a/TestData/webTablesData.xlsx
+++ b/TestData/webTablesData.xlsx
@@ -134,9 +134,6 @@
     <t>Department</t>
   </si>
   <si>
-    <t>john@demo,com</t>
-  </si>
-  <si>
     <t>jane@demo.com</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>james@demo.com</t>
+  </si>
+  <si>
+    <t>john@demo.com</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3">
         <v>50000</v>
@@ -577,7 +577,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3">
         <v>45000</v>
@@ -597,7 +597,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3">
         <v>60000</v>
@@ -617,7 +617,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3">
         <v>55000</v>
@@ -637,7 +637,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3">
         <v>52000</v>
@@ -657,7 +657,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3">
         <v>48000</v>
@@ -677,7 +677,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3">
         <v>53000</v>
@@ -697,7 +697,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3">
         <v>51000</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3">
         <v>47000</v>
@@ -737,7 +737,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3">
         <v>54000</v>
